--- a/Greyform-linux/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform-linux/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -1934,7 +1934,7 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E32">
         <v>445</v>
@@ -1972,7 +1972,7 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E33">
         <v>445</v>
@@ -2010,7 +2010,7 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E34">
         <v>445</v>
@@ -2048,7 +2048,7 @@
         <v>48</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>50</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E38">
         <v>445</v>
@@ -2200,7 +2200,7 @@
         <v>52</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E48">
         <v>750</v>
@@ -2580,7 +2580,7 @@
         <v>62</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E49">
         <v>750</v>
@@ -2618,7 +2618,7 @@
         <v>63</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E50">
         <v>150</v>
@@ -2656,7 +2656,7 @@
         <v>64</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E51">
         <v>150</v>
@@ -2694,7 +2694,7 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E52">
         <v>-450</v>
@@ -2732,7 +2732,7 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E53">
         <v>-450</v>
@@ -2770,7 +2770,7 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E54">
         <v>-900</v>
@@ -2808,7 +2808,7 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E55">
         <v>-900</v>
@@ -3739,7 +3739,7 @@
         <v>96</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1202</v>
       </c>
       <c r="E2">
         <v>160</v>
@@ -3777,7 +3777,7 @@
         <v>97</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E3">
         <v>210</v>
@@ -3815,7 +3815,7 @@
         <v>98</v>
       </c>
       <c r="D4">
-        <v>372</v>
+        <v>1572</v>
       </c>
       <c r="E4">
         <v>714</v>
@@ -3929,7 +3929,7 @@
         <v>101</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>1837</v>
       </c>
       <c r="E7">
         <v>-800</v>
@@ -3967,7 +3967,7 @@
         <v>102</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E8">
         <v>0</v>

--- a/Greyform-linux/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform-linux/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -2238,7 +2238,7 @@
         <v>53</v>
       </c>
       <c r="D40">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D41">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>55</v>
       </c>
       <c r="D42">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>56</v>
       </c>
       <c r="D43">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E43">
         <v>-300</v>
@@ -2390,7 +2390,7 @@
         <v>57</v>
       </c>
       <c r="D44">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E44">
         <v>-300</v>
@@ -2428,7 +2428,7 @@
         <v>58</v>
       </c>
       <c r="D45">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E45">
         <v>-300</v>
@@ -2466,7 +2466,7 @@
         <v>59</v>
       </c>
       <c r="D46">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E46">
         <v>-300</v>
@@ -2504,7 +2504,7 @@
         <v>60</v>
       </c>
       <c r="D47">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E48">
         <v>750</v>
@@ -2580,7 +2580,7 @@
         <v>62</v>
       </c>
       <c r="D49">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E49">
         <v>750</v>
@@ -2618,7 +2618,7 @@
         <v>63</v>
       </c>
       <c r="D50">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E50">
         <v>150</v>
@@ -2656,7 +2656,7 @@
         <v>64</v>
       </c>
       <c r="D51">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E51">
         <v>150</v>
@@ -2694,7 +2694,7 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E52">
         <v>-450</v>
@@ -2732,7 +2732,7 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E53">
         <v>-450</v>
@@ -2770,7 +2770,7 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E54">
         <v>-900</v>
@@ -2808,7 +2808,7 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E55">
         <v>-900</v>
@@ -2846,7 +2846,7 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E56">
         <v>300</v>
@@ -2884,7 +2884,7 @@
         <v>70</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E57">
         <v>-300</v>
@@ -2922,7 +2922,7 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E58">
         <v>-300</v>
@@ -2960,7 +2960,7 @@
         <v>72</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E59">
         <v>300</v>
@@ -2998,7 +2998,7 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E60">
         <v>-300</v>
@@ -3036,7 +3036,7 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E61">
         <v>-300</v>
@@ -3074,7 +3074,7 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E62">
         <v>300</v>
@@ -3112,7 +3112,7 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E63">
         <v>300</v>
@@ -3853,7 +3853,7 @@
         <v>99</v>
       </c>
       <c r="D5">
-        <v>-1823</v>
+        <v>937</v>
       </c>
       <c r="E5">
         <v>243</v>
@@ -3891,7 +3891,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E6">
         <v>-170</v>
@@ -3929,7 +3929,7 @@
         <v>101</v>
       </c>
       <c r="D7">
-        <v>1837</v>
+        <v>637</v>
       </c>
       <c r="E7">
         <v>-800</v>
@@ -3967,7 +3967,7 @@
         <v>102</v>
       </c>
       <c r="D8">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="E8">
         <v>0</v>

--- a/Greyform-linux/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform-linux/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="115">
   <si>
     <t>Marking type</t>
   </si>
@@ -66,19 +66,40 @@
     <t>TMP1S2d2:TMP1S2d2:1155209</t>
   </si>
   <si>
+    <t>TMP1S2b2:TMP1S2b2:1155199</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1155198</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1155197</t>
+  </si>
+  <si>
+    <t>TMP1S2a1:TMP1S2a1:1155195</t>
+  </si>
+  <si>
+    <t>TMP1S2a2:TMP1S2a2:1155194</t>
+  </si>
+  <si>
     <t>TMP1S2a3:TMP1S2a3:1155193</t>
   </si>
   <si>
     <t>TMP1S2a4:TMP1S2a4:1155192</t>
   </si>
   <si>
-    <t>TMP1S2b4:TMP1S2b4:1155197</t>
-  </si>
-  <si>
-    <t>TMP1S2b3:TMP1S2b3:1155198</t>
-  </si>
-  <si>
-    <t>TMP1S2b2:TMP1S2b2:1155199</t>
+    <t>TMP1S2c3:TMP1S2c3:1155203</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1155204</t>
+  </si>
+  <si>
+    <t>TMP1S2c1:TMP1S2c1:1155205</t>
+  </si>
+  <si>
+    <t>TMP1S2d4:TMP1S2d4:1155207</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1155208</t>
   </si>
   <si>
     <t>TMP1S2b1:TMP1S2b1:1155200</t>
@@ -87,27 +108,6 @@
     <t>TMP1S2c4:TMP1S2c4:1155202</t>
   </si>
   <si>
-    <t>TMP1S2c3:TMP1S2c3:1155203</t>
-  </si>
-  <si>
-    <t>TMP1S2c2:TMP1S2c2:1155204</t>
-  </si>
-  <si>
-    <t>TMP1S2c1:TMP1S2c1:1155205</t>
-  </si>
-  <si>
-    <t>TMP1S2d4:TMP1S2d4:1155207</t>
-  </si>
-  <si>
-    <t>TMP1S2d3:TMP1S2d3:1155208</t>
-  </si>
-  <si>
-    <t>TMP1S2a2:TMP1S2a2:1155194</t>
-  </si>
-  <si>
-    <t>TMP1S2a1:TMP1S2a1:1155195</t>
-  </si>
-  <si>
     <t>TMP1S2e4:TMP1S2e4:1155212</t>
   </si>
   <si>
@@ -135,100 +135,112 @@
     <t>TMP1S2d1:TMP1S2d1:1155210</t>
   </si>
   <si>
+    <t>TMP2S2b2:TMP2S2b2:1155222</t>
+  </si>
+  <si>
+    <t>TMP2S2b1:TMP2S2b1:1155223</t>
+  </si>
+  <si>
     <t>TMP2S2c2:TMP2S2c2:1156962</t>
   </si>
   <si>
-    <t>TMP2S2b1:TMP2S2b1:1155223</t>
+    <t>TMP2S2a1:TMP2S2a1:1155225</t>
   </si>
   <si>
     <t>TMP2S2a2:TMP2S2a2:1155224</t>
   </si>
   <si>
-    <t>TMP2S2a1:TMP2S2a1:1155225</t>
-  </si>
-  <si>
-    <t>TMP2S2b2:TMP2S2b2:1155222</t>
-  </si>
-  <si>
     <t>TMP2S2c1:TMP2S2c1:1156963</t>
   </si>
   <si>
+    <t>TMP3S2a2:TMP3S2a2:1155233</t>
+  </si>
+  <si>
     <t>TMP3S2b1:TMP3S2b1:1155229</t>
   </si>
   <si>
+    <t>TMP3S2b2:TMP3S2b2:1155230</t>
+  </si>
+  <si>
+    <t>TMP3S2a4:TMP3S2a4:1155231</t>
+  </si>
+  <si>
+    <t>TMP3S2a3:TMP3S2a3:1155232</t>
+  </si>
+  <si>
+    <t>TMP3S2a1:TMP3S2a1:1155234</t>
+  </si>
+  <si>
     <t>TMP3S2b3:TMP3S2b3:1155228</t>
   </si>
   <si>
-    <t>TMP3S2b2:TMP3S2b2:1155230</t>
-  </si>
-  <si>
-    <t>TMP3S2a4:TMP3S2a4:1155231</t>
-  </si>
-  <si>
-    <t>TMP3S2a3:TMP3S2a3:1155232</t>
-  </si>
-  <si>
-    <t>TMP3S2a2:TMP3S2a2:1155233</t>
-  </si>
-  <si>
     <t>TMP3S2b4:TMP3S2b4:1155227</t>
   </si>
   <si>
-    <t>TMP3S2a1:TMP3S2a1:1155234</t>
+    <t>TMP4S2b3:TMP4S2b3:1155238</t>
   </si>
   <si>
     <t>TMP4S2b4:TMP4S2b4:1155236</t>
   </si>
   <si>
-    <t>TMP4S2b3:TMP4S2b3:1155238</t>
+    <t>TMP4S2b2:TMP4S2b2:1155239</t>
   </si>
   <si>
     <t>TMP4S2b1:TMP4S2b1:1155240</t>
   </si>
   <si>
+    <t>TMP4S2a2:TMP4S2a2:1155242</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1155243</t>
+  </si>
+  <si>
+    <t>TMP4S2a4:TMP4S2a4:1155237</t>
+  </si>
+  <si>
     <t>TMP4S2a3:TMP4S2a3:1155241</t>
   </si>
   <si>
-    <t>TMP4S2a2:TMP4S2a2:1155242</t>
-  </si>
-  <si>
-    <t>TMP4S2a1:TMP4S2a1:1155243</t>
-  </si>
-  <si>
-    <t>TMP4S2a4:TMP4S2a4:1155237</t>
-  </si>
-  <si>
-    <t>TMP4S2b2:TMP4S2b2:1155239</t>
-  </si>
-  <si>
     <t>TMP5S2a1:TMP5S2a1:1155252</t>
   </si>
   <si>
+    <t>TMP5S2a4:TMP5S2a4:1155245</t>
+  </si>
+  <si>
+    <t>TMP5S2b3:TMP5S2b3:1155248</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1155249</t>
+  </si>
+  <si>
+    <t>TMP5S2b2:TMP5S2b2:1155250</t>
+  </si>
+  <si>
     <t>TMP5S2b1:TMP5S2b1:1155251</t>
   </si>
   <si>
-    <t>TMP5S2b2:TMP5S2b2:1155250</t>
-  </si>
-  <si>
-    <t>TMP5S2a2:TMP5S2a2:1155249</t>
-  </si>
-  <si>
-    <t>TMP5S2b3:TMP5S2b3:1155248</t>
+    <t>TMP5S2b4:TMP5S2b4:1155246</t>
   </si>
   <si>
     <t>TMP5S2a3:TMP5S2a3:1155247</t>
   </si>
   <si>
-    <t>TMP5S2b4:TMP5S2b4:1155246</t>
-  </si>
-  <si>
-    <t>TMP5S2a4:TMP5S2a4:1155245</t>
+    <t>TMP6S2a4:TMP6S2a4:1155255</t>
   </si>
   <si>
     <t>TMP6S2b3:TMP6S2b3:1155260</t>
   </si>
   <si>
-    <t>TMP6S2a4:TMP6S2a4:1155255</t>
+    <t>TMP6S2a2:TMP6S2a2:1155256</t>
+  </si>
+  <si>
+    <t>TMP6S2a1:TMP6S2a1:1155257</t>
+  </si>
+  <si>
+    <t>TMP6S2b1:TMP6S2b1:1155262</t>
+  </si>
+  <si>
+    <t>TMP6S2b4:TMP6S2b4:1155259</t>
   </si>
   <si>
     <t>TMP6S2a3:TMP6S2a3:1155254</t>
@@ -237,145 +249,118 @@
     <t>TMP6S2b2:TMP6S2b2:1155261</t>
   </si>
   <si>
-    <t>TMP6S2a1:TMP6S2a1:1155257</t>
-  </si>
-  <si>
-    <t>TMP6S2a2:TMP6S2a2:1155256</t>
-  </si>
-  <si>
-    <t>TMP6S2b1:TMP6S2b1:1155262</t>
-  </si>
-  <si>
-    <t>TMP6S2b4:TMP6S2b4:1155259</t>
+    <t>TMP7S2b3:TMP7S2b3:1155264</t>
   </si>
   <si>
     <t>TMP7S2c3:TMP7S2c3:1155274</t>
   </si>
   <si>
+    <t>TMP7S2d3:TMP7S2d3:1155273</t>
+  </si>
+  <si>
+    <t>TMP7S2d2:TMP7S2d2:1155272</t>
+  </si>
+  <si>
+    <t>TMP7S2d1:TMP7S2d1:1155271</t>
+  </si>
+  <si>
+    <t>TMP7S2a1:TMP7S2a1:1155269</t>
+  </si>
+  <si>
+    <t>TMP7S2a2:TMP7S2a2:1155268</t>
+  </si>
+  <si>
+    <t>TMP7S2a3:TMP7S2a3:1155267</t>
+  </si>
+  <si>
+    <t>TMP7S2b1:TMP7S2b1:1155266</t>
+  </si>
+  <si>
+    <t>TMP7S2b2:TMP7S2b2:1155265</t>
+  </si>
+  <si>
     <t>TMP7S2c2:TMP7S2c2:1155275</t>
   </si>
   <si>
     <t>TMP7S2c1:TMP7S2c1:1155276</t>
   </si>
   <si>
-    <t>TMP7S2d1:TMP7S2d1:1155271</t>
-  </si>
-  <si>
-    <t>TMP7S2a1:TMP7S2a1:1155269</t>
-  </si>
-  <si>
-    <t>TMP7S2a2:TMP7S2a2:1155268</t>
-  </si>
-  <si>
-    <t>TMP7S2a3:TMP7S2a3:1155267</t>
-  </si>
-  <si>
-    <t>TMP7S2b1:TMP7S2b1:1155266</t>
-  </si>
-  <si>
-    <t>TMP7S2b2:TMP7S2b2:1155265</t>
-  </si>
-  <si>
-    <t>TMP7S2b3:TMP7S2b3:1155264</t>
-  </si>
-  <si>
-    <t>TMP7S2d2:TMP7S2d2:1155272</t>
-  </si>
-  <si>
-    <t>TMP7S2d3:TMP7S2d3:1155273</t>
+    <t>Floor:BSS.20mm Floor Finishes (600x150mm):1091107</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Fitting</t>
+  </si>
+  <si>
+    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
+  </si>
+  <si>
+    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
+  </si>
+  <si>
+    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
+  </si>
+  <si>
+    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
+  </si>
+  <si>
+    <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
+  </si>
+  <si>
+    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
+  </si>
+  <si>
+    <t>BSS.GESSI,BM.49001:Default:1090988</t>
+  </si>
+  <si>
+    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1090991</t>
+  </si>
+  <si>
+    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
+  </si>
+  <si>
+    <t>BSS.FLOOR DRAIN_100:BSS.FLOOR DRAIN_100:1091045</t>
+  </si>
+  <si>
+    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
+  </si>
+  <si>
+    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1091065</t>
   </si>
   <si>
     <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
   </si>
   <si>
-    <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>Fitting</t>
-  </si>
-  <si>
-    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
-  </si>
-  <si>
-    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
-  </si>
-  <si>
-    <t>BSS.TECE.CONCEALED CISTERN.9370224:BSS.TECE.CONCEALED CISTERN.9370224:1090923</t>
-  </si>
-  <si>
-    <t>M_Coupling - Threaded - MI - Class 150:Standard:1018144</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
-  </si>
-  <si>
-    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1091065</t>
-  </si>
-  <si>
-    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_100:BSS.FLOOR DRAIN_100:1091045</t>
-  </si>
-  <si>
-    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1090991</t>
-  </si>
-  <si>
-    <t>BSS.GESSI,BM.49001:Default:1090988</t>
-  </si>
-  <si>
-    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
-  </si>
-  <si>
-    <t>M_Coupling - Threaded - MI - Class 150:Standard:1044021</t>
-  </si>
-  <si>
     <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
   </si>
   <si>
     <t>Obstacles</t>
   </si>
   <si>
-    <t>BSS.Gate Valve:20 mm:1018294</t>
-  </si>
-  <si>
     <t>BOX-UP2:BOX-UP:1091056</t>
-  </si>
-  <si>
-    <t>BSS.Gate Valve:32 mm:1040885</t>
-  </si>
-  <si>
-    <t>BSS.Gate Valve:32 mm:1040816</t>
   </si>
 </sst>
 </file>
@@ -733,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>470</v>
+        <v>-470</v>
       </c>
       <c r="F2">
         <v>425</v>
@@ -809,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -823,7 +808,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -835,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1350</v>
+        <v>350</v>
       </c>
       <c r="F3">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -847,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -861,7 +846,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -873,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1350</v>
+        <v>350</v>
       </c>
       <c r="F4">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -885,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -911,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-350</v>
+        <v>350</v>
       </c>
       <c r="F5">
         <v>-775</v>
@@ -923,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -937,7 +922,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -949,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-350</v>
+        <v>1350</v>
       </c>
       <c r="F6">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -961,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -975,7 +960,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -987,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-350</v>
+        <v>1350</v>
       </c>
       <c r="F7">
         <v>425</v>
@@ -999,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1013,7 +998,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1025,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-350</v>
+        <v>1350</v>
       </c>
       <c r="F8">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1037,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1051,7 +1036,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1063,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-30</v>
+        <v>1350</v>
       </c>
       <c r="F9">
         <v>-775</v>
@@ -1075,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1101,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>-175</v>
@@ -1113,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1139,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>425</v>
@@ -1151,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1177,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>1025</v>
@@ -1189,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1215,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>470</v>
+        <v>-470</v>
       </c>
       <c r="F13">
         <v>-775</v>
@@ -1227,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1253,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>470</v>
+        <v>-470</v>
       </c>
       <c r="F14">
         <v>-175</v>
@@ -1265,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1279,7 +1264,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1291,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-1350</v>
+        <v>350</v>
       </c>
       <c r="F15">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1303,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1317,7 +1302,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1329,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-1350</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1341,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1367,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>490</v>
+        <v>-490</v>
       </c>
       <c r="F17">
         <v>1025</v>
@@ -1379,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1405,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>490</v>
+        <v>-490</v>
       </c>
       <c r="F18">
         <v>-175</v>
@@ -1417,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1443,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>490</v>
+        <v>-490</v>
       </c>
       <c r="F19">
         <v>425</v>
@@ -1455,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1481,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>490</v>
+        <v>-490</v>
       </c>
       <c r="F20">
         <v>1025</v>
@@ -1493,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1519,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>935</v>
+        <v>-935</v>
       </c>
       <c r="F21">
         <v>-775</v>
@@ -1531,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1557,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>935</v>
+        <v>-935</v>
       </c>
       <c r="F22">
         <v>-175</v>
@@ -1569,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1595,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>935</v>
+        <v>-935</v>
       </c>
       <c r="F23">
         <v>425</v>
@@ -1607,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1633,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>935</v>
+        <v>-935</v>
       </c>
       <c r="F24">
         <v>1025</v>
@@ -1645,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1671,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>470</v>
+        <v>-470</v>
       </c>
       <c r="F25">
         <v>1025</v>
@@ -1683,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1697,7 +1682,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1709,10 +1694,10 @@
         <v>-2760</v>
       </c>
       <c r="E26">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F26">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1721,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1759,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1773,7 +1758,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1785,10 +1770,10 @@
         <v>-2760</v>
       </c>
       <c r="E28">
-        <v>-500</v>
+        <v>150</v>
       </c>
       <c r="F28">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1797,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1835,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1849,7 +1834,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1861,7 +1846,7 @@
         <v>-2760</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="F30">
         <v>-775</v>
@@ -1873,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1911,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1925,7 +1910,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1937,10 +1922,10 @@
         <v>1200</v>
       </c>
       <c r="E32">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1949,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1963,7 +1948,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1975,10 +1960,10 @@
         <v>1200</v>
       </c>
       <c r="E33">
-        <v>445</v>
+        <v>-445</v>
       </c>
       <c r="F33">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1987,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2013,7 +1998,7 @@
         <v>1200</v>
       </c>
       <c r="E34">
-        <v>445</v>
+        <v>-445</v>
       </c>
       <c r="F34">
         <v>425</v>
@@ -2025,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2063,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2101,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2115,7 +2100,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2130,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -2139,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2153,7 +2138,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2165,10 +2150,10 @@
         <v>1200</v>
       </c>
       <c r="E38">
-        <v>445</v>
+        <v>-445</v>
       </c>
       <c r="F38">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -2177,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2191,7 +2176,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2203,10 +2188,10 @@
         <v>1200</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>-445</v>
       </c>
       <c r="F39">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -2215,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2229,7 +2214,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2244,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -2253,13 +2238,13 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M40">
         <v>2655</v>
@@ -2267,7 +2252,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2282,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -2291,13 +2276,13 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M41">
         <v>2655</v>
@@ -2305,7 +2290,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2320,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -2329,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M42">
         <v>2655</v>
@@ -2343,7 +2328,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2355,10 +2340,10 @@
         <v>960</v>
       </c>
       <c r="E43">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -2367,13 +2352,13 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M43">
         <v>2655</v>
@@ -2393,7 +2378,7 @@
         <v>960</v>
       </c>
       <c r="E44">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F44">
         <v>425</v>
@@ -2405,13 +2390,13 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M44">
         <v>2655</v>
@@ -2431,7 +2416,7 @@
         <v>960</v>
       </c>
       <c r="E45">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F45">
         <v>1025</v>
@@ -2443,13 +2428,13 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M45">
         <v>2655</v>
@@ -2469,7 +2454,7 @@
         <v>960</v>
       </c>
       <c r="E46">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F46">
         <v>-775</v>
@@ -2481,13 +2466,13 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M46">
         <v>2655</v>
@@ -2495,7 +2480,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2507,10 +2492,10 @@
         <v>960</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F47">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -2519,13 +2504,13 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M47">
         <v>2655</v>
@@ -2545,7 +2530,7 @@
         <v>600</v>
       </c>
       <c r="E48">
-        <v>750</v>
+        <v>-750</v>
       </c>
       <c r="F48">
         <v>-775</v>
@@ -2557,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2571,7 +2556,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2583,10 +2568,10 @@
         <v>600</v>
       </c>
       <c r="E49">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F49">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -2595,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2609,7 +2594,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2621,7 +2606,7 @@
         <v>600</v>
       </c>
       <c r="E50">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="F50">
         <v>-25</v>
@@ -2633,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2659,7 +2644,7 @@
         <v>600</v>
       </c>
       <c r="E51">
-        <v>150</v>
+        <v>-150</v>
       </c>
       <c r="F51">
         <v>-775</v>
@@ -2671,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2685,7 +2670,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2697,7 +2682,7 @@
         <v>600</v>
       </c>
       <c r="E52">
-        <v>-450</v>
+        <v>-150</v>
       </c>
       <c r="F52">
         <v>-25</v>
@@ -2709,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2723,7 +2708,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2735,10 +2720,10 @@
         <v>600</v>
       </c>
       <c r="E53">
-        <v>-450</v>
+        <v>-750</v>
       </c>
       <c r="F53">
-        <v>-775</v>
+        <v>-25</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -2747,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2773,7 +2758,7 @@
         <v>600</v>
       </c>
       <c r="E54">
-        <v>-900</v>
+        <v>900</v>
       </c>
       <c r="F54">
         <v>-25</v>
@@ -2785,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2799,7 +2784,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2811,7 +2796,7 @@
         <v>600</v>
       </c>
       <c r="E55">
-        <v>-900</v>
+        <v>450</v>
       </c>
       <c r="F55">
         <v>-775</v>
@@ -2823,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2837,7 +2822,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2846,7 +2831,7 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E56">
         <v>300</v>
@@ -2861,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2875,7 +2860,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2884,7 +2869,7 @@
         <v>70</v>
       </c>
       <c r="D57">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E57">
         <v>-300</v>
@@ -2899,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2913,7 +2898,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2922,13 +2907,13 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E58">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F58">
-        <v>-750</v>
+        <v>450</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -2937,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2951,7 +2936,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -2960,13 +2945,13 @@
         <v>72</v>
       </c>
       <c r="D59">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E59">
         <v>300</v>
       </c>
       <c r="F59">
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="G59">
         <v>6</v>
@@ -2975,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2989,7 +2974,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -2998,7 +2983,7 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E60">
         <v>-300</v>
@@ -3013,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3027,7 +3012,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3036,13 +3021,13 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E61">
         <v>-300</v>
       </c>
       <c r="F61">
-        <v>450</v>
+        <v>-750</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -3051,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3065,7 +3050,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3074,13 +3059,13 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E62">
         <v>300</v>
       </c>
       <c r="F62">
-        <v>1050</v>
+        <v>-750</v>
       </c>
       <c r="G62">
         <v>6</v>
@@ -3089,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3103,7 +3088,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3112,13 +3097,13 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>-1800</v>
+        <v>960</v>
       </c>
       <c r="E63">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F63">
-        <v>-750</v>
+        <v>450</v>
       </c>
       <c r="G63">
         <v>6</v>
@@ -3127,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3141,7 +3126,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3150,7 +3135,7 @@
         <v>77</v>
       </c>
       <c r="D64">
-        <v>720</v>
+        <v>1410</v>
       </c>
       <c r="E64">
         <v>150</v>
@@ -3159,13 +3144,13 @@
         <v>-25</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3179,7 +3164,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3191,19 +3176,19 @@
         <v>720</v>
       </c>
       <c r="E65">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F65">
         <v>-25</v>
       </c>
       <c r="G65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3217,7 +3202,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3226,22 +3211,22 @@
         <v>79</v>
       </c>
       <c r="D66">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="E66">
-        <v>1050</v>
+        <v>150</v>
       </c>
       <c r="F66">
         <v>-25</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3255,7 +3240,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3267,19 +3252,19 @@
         <v>120</v>
       </c>
       <c r="E67">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="F67">
         <v>-25</v>
       </c>
       <c r="G67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3293,7 +3278,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -3302,22 +3287,22 @@
         <v>81</v>
       </c>
       <c r="D68">
-        <v>2310</v>
+        <v>120</v>
       </c>
       <c r="E68">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="F68">
         <v>-25</v>
       </c>
       <c r="G68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3331,7 +3316,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3343,19 +3328,19 @@
         <v>2310</v>
       </c>
       <c r="E69">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F69">
         <v>-25</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3369,7 +3354,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3381,19 +3366,19 @@
         <v>2310</v>
       </c>
       <c r="E70">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F70">
         <v>-25</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3407,7 +3392,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -3416,22 +3401,22 @@
         <v>84</v>
       </c>
       <c r="D71">
-        <v>1410</v>
+        <v>2310</v>
       </c>
       <c r="E71">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="F71">
         <v>-25</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3445,7 +3430,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -3457,19 +3442,19 @@
         <v>1410</v>
       </c>
       <c r="E72">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F72">
         <v>-25</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3483,7 +3468,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -3495,19 +3480,19 @@
         <v>1410</v>
       </c>
       <c r="E73">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F73">
         <v>-25</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3521,7 +3506,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -3530,7 +3515,7 @@
         <v>87</v>
       </c>
       <c r="D74">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="E74">
         <v>600</v>
@@ -3539,13 +3524,13 @@
         <v>-25</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -3559,7 +3544,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -3568,22 +3553,22 @@
         <v>88</v>
       </c>
       <c r="D75">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="E75">
-        <v>150</v>
+        <v>1050</v>
       </c>
       <c r="F75">
         <v>-25</v>
       </c>
       <c r="G75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3597,7 +3582,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -3606,22 +3591,22 @@
         <v>89</v>
       </c>
       <c r="D76">
-        <v>645</v>
+        <v>840</v>
       </c>
       <c r="E76">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>-77</v>
+        <v>-70</v>
       </c>
       <c r="G76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H76">
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -3630,44 +3615,6 @@
         <v>2900</v>
       </c>
       <c r="M76">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1">
-        <v>74</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77">
-        <v>1010</v>
-      </c>
-      <c r="E77">
-        <v>1535</v>
-      </c>
-      <c r="F77">
-        <v>-77</v>
-      </c>
-      <c r="G77" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77">
-        <v>6</v>
-      </c>
-      <c r="I77" t="s">
-        <v>94</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>2900</v>
-      </c>
-      <c r="M77">
         <v>1932</v>
       </c>
     </row>
@@ -3678,7 +3625,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3730,22 +3677,22 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
       <c r="D2">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E2">
-        <v>160</v>
+        <v>-210</v>
       </c>
       <c r="F2">
-        <v>-181</v>
+        <v>-50</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3754,7 +3701,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3768,22 +3715,22 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="E3">
-        <v>210</v>
+        <v>-160</v>
       </c>
       <c r="F3">
-        <v>-50</v>
+        <v>-181</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3792,7 +3739,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3806,37 +3753,37 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>1572</v>
+        <v>960</v>
       </c>
       <c r="E4">
-        <v>714</v>
+        <v>170</v>
       </c>
       <c r="F4">
-        <v>-715</v>
+        <v>-375</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>960</v>
+        <v>592</v>
       </c>
       <c r="M4">
         <v>2655</v>
@@ -3844,37 +3791,37 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>937</v>
+        <v>600</v>
       </c>
       <c r="E5">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-800</v>
+        <v>125</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M5">
         <v>2655</v>
@@ -3882,37 +3829,37 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>960</v>
+        <v>637</v>
       </c>
       <c r="E6">
-        <v>-170</v>
+        <v>800</v>
       </c>
       <c r="F6">
-        <v>-375</v>
+        <v>-365</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M6">
         <v>2655</v>
@@ -3920,107 +3867,107 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>637</v>
+        <v>2235</v>
       </c>
       <c r="E7">
-        <v>-800</v>
+        <v>1650</v>
       </c>
       <c r="F7">
-        <v>-365</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M7">
-        <v>2655</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8">
-        <v>600</v>
+        <v>2385</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="F8">
-        <v>125</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M8">
-        <v>2655</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9">
-        <v>645</v>
+        <v>1010</v>
       </c>
       <c r="E9">
-        <v>1075</v>
+        <v>1535</v>
       </c>
       <c r="F9">
-        <v>-50</v>
+        <v>-77</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -4034,31 +3981,31 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10">
-        <v>1285</v>
+        <v>2660</v>
       </c>
       <c r="E10">
-        <v>1592</v>
+        <v>435</v>
       </c>
       <c r="F10">
-        <v>-24</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -4072,31 +4019,31 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>1010</v>
+        <v>1060</v>
       </c>
       <c r="E11">
-        <v>1535</v>
+        <v>1580</v>
       </c>
       <c r="F11">
-        <v>-25</v>
+        <v>275</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4110,31 +4057,31 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12">
-        <v>1410</v>
+        <v>2310</v>
       </c>
       <c r="E12">
-        <v>1692</v>
+        <v>1740</v>
       </c>
       <c r="F12">
         <v>825</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4151,10 +4098,10 @@
         <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13">
         <v>1320</v>
@@ -4166,13 +4113,13 @@
         <v>1175</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4186,31 +4133,31 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14">
-        <v>2310</v>
+        <v>1410</v>
       </c>
       <c r="E14">
-        <v>1740</v>
+        <v>1692</v>
       </c>
       <c r="F14">
         <v>825</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4224,31 +4171,31 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15">
-        <v>1060</v>
+        <v>1010</v>
       </c>
       <c r="E15">
-        <v>1580</v>
+        <v>1535</v>
       </c>
       <c r="F15">
-        <v>275</v>
+        <v>-25</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4262,31 +4209,31 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16">
-        <v>2660</v>
+        <v>1285</v>
       </c>
       <c r="E16">
-        <v>435</v>
+        <v>1592</v>
       </c>
       <c r="F16">
-        <v>210</v>
+        <v>-24</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4300,31 +4247,31 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17">
-        <v>2385</v>
+        <v>645</v>
       </c>
       <c r="E17">
-        <v>1710</v>
+        <v>1075</v>
       </c>
       <c r="F17">
-        <v>175</v>
+        <v>-50</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4338,31 +4285,31 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18">
-        <v>2235</v>
+        <v>645</v>
       </c>
       <c r="E18">
-        <v>1650</v>
+        <v>1112</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>-77</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18">
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4376,31 +4323,31 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19">
-        <v>860</v>
+        <v>2310</v>
       </c>
       <c r="E19">
-        <v>1299</v>
+        <v>1505</v>
       </c>
       <c r="F19">
-        <v>2468</v>
+        <v>547</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H19">
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4409,44 +4356,6 @@
         <v>2900</v>
       </c>
       <c r="M19">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20">
-        <v>2310</v>
-      </c>
-      <c r="E20">
-        <v>1505</v>
-      </c>
-      <c r="F20">
-        <v>547</v>
-      </c>
-      <c r="G20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>2900</v>
-      </c>
-      <c r="M20">
         <v>1932</v>
       </c>
     </row>
@@ -4457,7 +4366,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4509,31 +4418,31 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>2560</v>
+        <v>960</v>
       </c>
       <c r="E2">
-        <v>615</v>
+        <v>1585</v>
       </c>
       <c r="F2">
-        <v>210</v>
+        <v>-45</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4542,120 +4451,6 @@
         <v>2900</v>
       </c>
       <c r="M2">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3">
-        <v>960</v>
-      </c>
-      <c r="E3">
-        <v>1585</v>
-      </c>
-      <c r="F3">
-        <v>-45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>2900</v>
-      </c>
-      <c r="M3">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4">
-        <v>2100</v>
-      </c>
-      <c r="E4">
-        <v>115</v>
-      </c>
-      <c r="F4">
-        <v>175</v>
-      </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2900</v>
-      </c>
-      <c r="M4">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5">
-        <v>2200</v>
-      </c>
-      <c r="E5">
-        <v>215</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>2900</v>
-      </c>
-      <c r="M5">
         <v>1932</v>
       </c>
     </row>

--- a/Greyform-linux/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
+++ b/Greyform-linux/Python_Application/exporteddatassss(with TMP)(draft)(tetra).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="102">
   <si>
     <t>Marking type</t>
   </si>
@@ -63,9 +63,36 @@
     <t>Tile</t>
   </si>
   <si>
+    <t>TMP1S2c3:TMP1S2c3:1155203</t>
+  </si>
+  <si>
+    <t>TMP1S2d1:TMP1S2d1:1155210</t>
+  </si>
+  <si>
     <t>TMP1S2d2:TMP1S2d2:1155209</t>
   </si>
   <si>
+    <t>TMP1S2d3:TMP1S2d3:1155208</t>
+  </si>
+  <si>
+    <t>TMP1S2d4:TMP1S2d4:1155207</t>
+  </si>
+  <si>
+    <t>TMP1S2c1:TMP1S2c1:1155205</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1155204</t>
+  </si>
+  <si>
+    <t>TMP1S2e2:TMP1S2e2:1155214</t>
+  </si>
+  <si>
+    <t>TMP1S2c4:TMP1S2c4:1155202</t>
+  </si>
+  <si>
+    <t>TMP1S2b1:TMP1S2b1:1155200</t>
+  </si>
+  <si>
     <t>TMP1S2b2:TMP1S2b2:1155199</t>
   </si>
   <si>
@@ -87,25 +114,19 @@
     <t>TMP1S2a4:TMP1S2a4:1155192</t>
   </si>
   <si>
-    <t>TMP1S2c3:TMP1S2c3:1155203</t>
-  </si>
-  <si>
-    <t>TMP1S2c2:TMP1S2c2:1155204</t>
-  </si>
-  <si>
-    <t>TMP1S2c1:TMP1S2c1:1155205</t>
-  </si>
-  <si>
-    <t>TMP1S2d4:TMP1S2d4:1155207</t>
-  </si>
-  <si>
-    <t>TMP1S2d3:TMP1S2d3:1155208</t>
-  </si>
-  <si>
-    <t>TMP1S2b1:TMP1S2b1:1155200</t>
-  </si>
-  <si>
-    <t>TMP1S2c4:TMP1S2c4:1155202</t>
+    <t>TMP1S2e1:TMP1S2e1:1155215</t>
+  </si>
+  <si>
+    <t>TMP1S2f4:TMP1S2f4:1155217</t>
+  </si>
+  <si>
+    <t>TMP1S2f3:TMP1S2f3:1155218</t>
+  </si>
+  <si>
+    <t>TMP1S2f2:TMP1S2f2:1155219</t>
+  </si>
+  <si>
+    <t>TMP1S2f1:TMP1S2f1:1155220</t>
   </si>
   <si>
     <t>TMP1S2e4:TMP1S2e4:1155212</t>
@@ -114,253 +135,193 @@
     <t>TMP1S2e3:TMP1S2e3:1155213</t>
   </si>
   <si>
-    <t>TMP1S2e2:TMP1S2e2:1155214</t>
-  </si>
-  <si>
-    <t>TMP1S2e1:TMP1S2e1:1155215</t>
-  </si>
-  <si>
-    <t>TMP1S2f4:TMP1S2f4:1155217</t>
-  </si>
-  <si>
-    <t>TMP1S2f3:TMP1S2f3:1155218</t>
-  </si>
-  <si>
-    <t>TMP1S2f2:TMP1S2f2:1155219</t>
-  </si>
-  <si>
-    <t>TMP1S2f1:TMP1S2f1:1155220</t>
-  </si>
-  <si>
-    <t>TMP1S2d1:TMP1S2d1:1155210</t>
-  </si>
-  <si>
     <t>TMP2S2b2:TMP2S2b2:1155222</t>
   </si>
   <si>
     <t>TMP2S2b1:TMP2S2b1:1155223</t>
   </si>
   <si>
+    <t>TMP2S2c1:TMP2S2c1:1156963</t>
+  </si>
+  <si>
     <t>TMP2S2c2:TMP2S2c2:1156962</t>
   </si>
   <si>
+    <t>TMP2S2a2:TMP2S2a2:1155224</t>
+  </si>
+  <si>
     <t>TMP2S2a1:TMP2S2a1:1155225</t>
   </si>
   <si>
-    <t>TMP2S2a2:TMP2S2a2:1155224</t>
-  </si>
-  <si>
-    <t>TMP2S2c1:TMP2S2c1:1156963</t>
+    <t>TMP3S2b3:TMP3S2b3:1155228</t>
+  </si>
+  <si>
+    <t>TMP3S2b1:TMP3S2b1:1155229</t>
+  </si>
+  <si>
+    <t>TMP3S2b2:TMP3S2b2:1155230</t>
+  </si>
+  <si>
+    <t>TMP3S2a3:TMP3S2a3:1155232</t>
   </si>
   <si>
     <t>TMP3S2a2:TMP3S2a2:1155233</t>
   </si>
   <si>
-    <t>TMP3S2b1:TMP3S2b1:1155229</t>
-  </si>
-  <si>
-    <t>TMP3S2b2:TMP3S2b2:1155230</t>
+    <t>TMP3S2a1:TMP3S2a1:1155234</t>
   </si>
   <si>
     <t>TMP3S2a4:TMP3S2a4:1155231</t>
   </si>
   <si>
-    <t>TMP3S2a3:TMP3S2a3:1155232</t>
-  </si>
-  <si>
-    <t>TMP3S2a1:TMP3S2a1:1155234</t>
-  </si>
-  <si>
-    <t>TMP3S2b3:TMP3S2b3:1155228</t>
-  </si>
-  <si>
     <t>TMP3S2b4:TMP3S2b4:1155227</t>
   </si>
   <si>
+    <t>TMP4S2a4:TMP4S2a4:1155237</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1155243</t>
+  </si>
+  <si>
+    <t>TMP4S2a3:TMP4S2a3:1155241</t>
+  </si>
+  <si>
+    <t>TMP4S2a2:TMP4S2a2:1155242</t>
+  </si>
+  <si>
+    <t>TMP5S2b1:TMP5S2b1:1155251</t>
+  </si>
+  <si>
+    <t>TMP5S2b2:TMP5S2b2:1155250</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1155249</t>
+  </si>
+  <si>
+    <t>TMP5S2b3:TMP5S2b3:1155248</t>
+  </si>
+  <si>
+    <t>TMP5S2a3:TMP5S2a3:1155247</t>
+  </si>
+  <si>
+    <t>TMP5S2b4:TMP5S2b4:1155246</t>
+  </si>
+  <si>
+    <t>TMP5S2a4:TMP5S2a4:1155245</t>
+  </si>
+  <si>
+    <t>TMP5S2a1:TMP5S2a1:1155252</t>
+  </si>
+  <si>
+    <t>TMP4S2b2:TMP4S2b2:1155239</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1155240</t>
+  </si>
+  <si>
+    <t>TMP4S2b4:TMP4S2b4:1155236</t>
+  </si>
+  <si>
     <t>TMP4S2b3:TMP4S2b3:1155238</t>
   </si>
   <si>
-    <t>TMP4S2b4:TMP4S2b4:1155236</t>
-  </si>
-  <si>
-    <t>TMP4S2b2:TMP4S2b2:1155239</t>
-  </si>
-  <si>
-    <t>TMP4S2b1:TMP4S2b1:1155240</t>
-  </si>
-  <si>
-    <t>TMP4S2a2:TMP4S2a2:1155242</t>
-  </si>
-  <si>
-    <t>TMP4S2a1:TMP4S2a1:1155243</t>
-  </si>
-  <si>
-    <t>TMP4S2a4:TMP4S2a4:1155237</t>
-  </si>
-  <si>
-    <t>TMP4S2a3:TMP4S2a3:1155241</t>
-  </si>
-  <si>
-    <t>TMP5S2a1:TMP5S2a1:1155252</t>
-  </si>
-  <si>
-    <t>TMP5S2a4:TMP5S2a4:1155245</t>
-  </si>
-  <si>
-    <t>TMP5S2b3:TMP5S2b3:1155248</t>
-  </si>
-  <si>
-    <t>TMP5S2a2:TMP5S2a2:1155249</t>
-  </si>
-  <si>
-    <t>TMP5S2b2:TMP5S2b2:1155250</t>
-  </si>
-  <si>
-    <t>TMP5S2b1:TMP5S2b1:1155251</t>
-  </si>
-  <si>
-    <t>TMP5S2b4:TMP5S2b4:1155246</t>
-  </si>
-  <si>
-    <t>TMP5S2a3:TMP5S2a3:1155247</t>
+    <t>TMP6S2b1:TMP6S2b1:1155262</t>
+  </si>
+  <si>
+    <t>TMP6S2b3:TMP6S2b3:1155260</t>
+  </si>
+  <si>
+    <t>TMP6S2b2:TMP6S2b2:1155261</t>
+  </si>
+  <si>
+    <t>TMP6S2a1:TMP6S2a1:1155257</t>
+  </si>
+  <si>
+    <t>TMP6S2a2:TMP6S2a2:1155256</t>
   </si>
   <si>
     <t>TMP6S2a4:TMP6S2a4:1155255</t>
   </si>
   <si>
-    <t>TMP6S2b3:TMP6S2b3:1155260</t>
-  </si>
-  <si>
-    <t>TMP6S2a2:TMP6S2a2:1155256</t>
-  </si>
-  <si>
-    <t>TMP6S2a1:TMP6S2a1:1155257</t>
-  </si>
-  <si>
-    <t>TMP6S2b1:TMP6S2b1:1155262</t>
+    <t>TMP6S2a3:TMP6S2a3:1155254</t>
   </si>
   <si>
     <t>TMP6S2b4:TMP6S2b4:1155259</t>
   </si>
   <si>
-    <t>TMP6S2a3:TMP6S2a3:1155254</t>
-  </si>
-  <si>
-    <t>TMP6S2b2:TMP6S2b2:1155261</t>
+    <t>TMP7S2c1:TMP7S2c1:1155276</t>
+  </si>
+  <si>
+    <t>TMP7S2c2:TMP7S2c2:1155275</t>
+  </si>
+  <si>
+    <t>TMP7S2c3:TMP7S2c3:1155274</t>
+  </si>
+  <si>
+    <t>TMP7S2d3:TMP7S2d3:1155273</t>
+  </si>
+  <si>
+    <t>TMP7S2d2:TMP7S2d2:1155272</t>
+  </si>
+  <si>
+    <t>TMP7S2a1:TMP7S2a1:1155269</t>
+  </si>
+  <si>
+    <t>TMP7S2a2:TMP7S2a2:1155268</t>
+  </si>
+  <si>
+    <t>TMP7S2a3:TMP7S2a3:1155267</t>
+  </si>
+  <si>
+    <t>TMP7S2b1:TMP7S2b1:1155266</t>
   </si>
   <si>
     <t>TMP7S2b3:TMP7S2b3:1155264</t>
   </si>
   <si>
-    <t>TMP7S2c3:TMP7S2c3:1155274</t>
-  </si>
-  <si>
-    <t>TMP7S2d3:TMP7S2d3:1155273</t>
-  </si>
-  <si>
-    <t>TMP7S2d2:TMP7S2d2:1155272</t>
-  </si>
-  <si>
     <t>TMP7S2d1:TMP7S2d1:1155271</t>
   </si>
   <si>
-    <t>TMP7S2a1:TMP7S2a1:1155269</t>
-  </si>
-  <si>
-    <t>TMP7S2a2:TMP7S2a2:1155268</t>
-  </si>
-  <si>
-    <t>TMP7S2a3:TMP7S2a3:1155267</t>
-  </si>
-  <si>
-    <t>TMP7S2b1:TMP7S2b1:1155266</t>
-  </si>
-  <si>
     <t>TMP7S2b2:TMP7S2b2:1155265</t>
   </si>
   <si>
-    <t>TMP7S2c2:TMP7S2c2:1155275</t>
-  </si>
-  <si>
-    <t>TMP7S2c1:TMP7S2c1:1155276</t>
-  </si>
-  <si>
-    <t>Floor:BSS.20mm Floor Finishes (600x150mm):1091107</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Fitting</t>
+  </si>
+  <si>
+    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
+  </si>
+  <si>
+    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
+  </si>
+  <si>
+    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
+  </si>
+  <si>
+    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
+  </si>
+  <si>
+    <t>BSS.GESSI,BM.49001:Default:1090988</t>
+  </si>
+  <si>
+    <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
+  </si>
+  <si>
+    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
+  </si>
+  <si>
+    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
+  </si>
+  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>Fitting</t>
-  </si>
-  <si>
-    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
-  </si>
-  <si>
-    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
-  </si>
-  <si>
-    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
-  </si>
-  <si>
-    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
-  </si>
-  <si>
-    <t>BSS.GESSI,BM.49001:Default:1090988</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1090991</t>
-  </si>
-  <si>
-    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_100:BSS.FLOOR DRAIN_100:1091045</t>
-  </si>
-  <si>
-    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1091065</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
-  </si>
-  <si>
-    <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
-  </si>
-  <si>
-    <t>Obstacles</t>
-  </si>
-  <si>
-    <t>BOX-UP2:BOX-UP:1091056</t>
   </si>
 </sst>
 </file>
@@ -718,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -770,7 +731,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -782,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-470</v>
+        <v>-30</v>
       </c>
       <c r="F2">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -794,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -808,7 +769,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -820,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="F3">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -832,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -846,7 +807,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -858,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="F4">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -870,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -884,7 +845,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -896,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="F5">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -908,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -922,7 +883,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -934,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1350</v>
+        <v>470</v>
       </c>
       <c r="F6">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -946,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -960,7 +921,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -972,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1350</v>
+        <v>-30</v>
       </c>
       <c r="F7">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -984,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -998,7 +959,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1010,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1350</v>
+        <v>-30</v>
       </c>
       <c r="F8">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1022,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1036,7 +997,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1048,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1350</v>
+        <v>490</v>
       </c>
       <c r="F9">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1060,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1074,7 +1035,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1086,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F10">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1098,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1112,7 +1073,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1124,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>-350</v>
       </c>
       <c r="F11">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1136,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1150,7 +1111,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1162,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>-350</v>
       </c>
       <c r="F12">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1174,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1188,7 +1149,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1200,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-470</v>
+        <v>-350</v>
       </c>
       <c r="F13">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1212,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1226,7 +1187,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1238,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-470</v>
+        <v>-350</v>
       </c>
       <c r="F14">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1250,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1264,7 +1225,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1276,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>350</v>
+        <v>-1350</v>
       </c>
       <c r="F15">
         <v>1025</v>
@@ -1288,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1302,7 +1263,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1314,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>-1350</v>
       </c>
       <c r="F16">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1326,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1340,7 +1301,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1352,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-490</v>
+        <v>-1350</v>
       </c>
       <c r="F17">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1364,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1378,7 +1339,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1390,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>-490</v>
+        <v>-1350</v>
       </c>
       <c r="F18">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1402,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1416,7 +1377,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1428,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-490</v>
+        <v>490</v>
       </c>
       <c r="F19">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1440,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1454,7 +1415,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1466,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-490</v>
+        <v>935</v>
       </c>
       <c r="F20">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1478,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1492,7 +1453,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1504,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-935</v>
+        <v>935</v>
       </c>
       <c r="F21">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1516,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1530,7 +1491,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1542,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-935</v>
+        <v>935</v>
       </c>
       <c r="F22">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1554,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1568,7 +1529,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1580,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-935</v>
+        <v>935</v>
       </c>
       <c r="F23">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1592,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1606,7 +1567,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1618,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-935</v>
+        <v>490</v>
       </c>
       <c r="F24">
         <v>1025</v>
@@ -1630,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1644,7 +1605,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1656,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-470</v>
+        <v>490</v>
       </c>
       <c r="F25">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1668,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1706,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1744,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1758,7 +1719,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1773,7 +1734,7 @@
         <v>150</v>
       </c>
       <c r="F28">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1782,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1796,7 +1757,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1808,10 +1769,10 @@
         <v>-2760</v>
       </c>
       <c r="E29">
-        <v>-500</v>
+        <v>150</v>
       </c>
       <c r="F29">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1820,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1858,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1872,7 +1833,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1884,10 +1845,10 @@
         <v>-2760</v>
       </c>
       <c r="E31">
-        <v>150</v>
+        <v>-500</v>
       </c>
       <c r="F31">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1896,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1910,7 +1871,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1922,10 +1883,10 @@
         <v>1200</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="F32">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1934,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1960,7 +1921,7 @@
         <v>1200</v>
       </c>
       <c r="E33">
-        <v>-445</v>
+        <v>445</v>
       </c>
       <c r="F33">
         <v>1025</v>
@@ -1972,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1998,7 +1959,7 @@
         <v>1200</v>
       </c>
       <c r="E34">
-        <v>-445</v>
+        <v>445</v>
       </c>
       <c r="F34">
         <v>425</v>
@@ -2010,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2024,7 +1985,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2039,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -2048,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2062,7 +2023,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2077,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -2086,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2124,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2138,7 +2099,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2150,10 +2111,10 @@
         <v>1200</v>
       </c>
       <c r="E38">
-        <v>-445</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -2162,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2188,7 +2149,7 @@
         <v>1200</v>
       </c>
       <c r="E39">
-        <v>-445</v>
+        <v>445</v>
       </c>
       <c r="F39">
         <v>-775</v>
@@ -2200,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2214,7 +2175,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2226,10 +2187,10 @@
         <v>960</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F40">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -2238,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2252,7 +2213,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2264,10 +2225,10 @@
         <v>960</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F41">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -2276,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2290,7 +2251,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2302,10 +2263,10 @@
         <v>960</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F42">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -2314,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2328,7 +2289,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2340,10 +2301,10 @@
         <v>960</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F43">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -2352,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2366,7 +2327,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2375,28 +2336,28 @@
         <v>57</v>
       </c>
       <c r="D44">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="E44">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F44">
-        <v>425</v>
+        <v>-25</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>592</v>
+        <v>1940</v>
       </c>
       <c r="M44">
         <v>2655</v>
@@ -2404,7 +2365,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2413,28 +2374,28 @@
         <v>58</v>
       </c>
       <c r="D45">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="E45">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F45">
-        <v>1025</v>
+        <v>-25</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>592</v>
+        <v>1940</v>
       </c>
       <c r="M45">
         <v>2655</v>
@@ -2442,7 +2403,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2451,28 +2412,28 @@
         <v>59</v>
       </c>
       <c r="D46">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="E46">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F46">
         <v>-775</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>592</v>
+        <v>1940</v>
       </c>
       <c r="M46">
         <v>2655</v>
@@ -2480,7 +2441,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2489,28 +2450,28 @@
         <v>60</v>
       </c>
       <c r="D47">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="E47">
-        <v>300</v>
+        <v>-450</v>
       </c>
       <c r="F47">
-        <v>-175</v>
+        <v>-25</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>592</v>
+        <v>1940</v>
       </c>
       <c r="M47">
         <v>2655</v>
@@ -2518,7 +2479,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2530,7 +2491,7 @@
         <v>600</v>
       </c>
       <c r="E48">
-        <v>-750</v>
+        <v>-450</v>
       </c>
       <c r="F48">
         <v>-775</v>
@@ -2542,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2556,7 +2517,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2568,10 +2529,10 @@
         <v>600</v>
       </c>
       <c r="E49">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="F49">
-        <v>-775</v>
+        <v>-25</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -2580,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2594,7 +2555,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2606,10 +2567,10 @@
         <v>600</v>
       </c>
       <c r="E50">
-        <v>450</v>
+        <v>-900</v>
       </c>
       <c r="F50">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -2618,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2632,7 +2593,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2644,7 +2605,7 @@
         <v>600</v>
       </c>
       <c r="E51">
-        <v>-150</v>
+        <v>750</v>
       </c>
       <c r="F51">
         <v>-775</v>
@@ -2656,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2670,7 +2631,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2679,13 +2640,13 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E52">
-        <v>-150</v>
+        <v>-900</v>
       </c>
       <c r="F52">
-        <v>-25</v>
+        <v>425</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -2694,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2708,7 +2669,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2717,13 +2678,13 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E53">
-        <v>-750</v>
+        <v>-900</v>
       </c>
       <c r="F53">
-        <v>-25</v>
+        <v>1025</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -2732,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2746,7 +2707,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -2755,13 +2716,13 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E54">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="F54">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G54">
         <v>5</v>
@@ -2770,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2784,7 +2745,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2793,13 +2754,13 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E55">
-        <v>450</v>
+        <v>-900</v>
       </c>
       <c r="F55">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -2808,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2822,7 +2783,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2831,13 +2792,13 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E56">
         <v>300</v>
       </c>
       <c r="F56">
-        <v>-150</v>
+        <v>1050</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2846,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2869,10 +2830,10 @@
         <v>70</v>
       </c>
       <c r="D57">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E57">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F57">
         <v>-150</v>
@@ -2884,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2898,7 +2859,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2907,7 +2868,7 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E58">
         <v>300</v>
@@ -2922,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2945,10 +2906,10 @@
         <v>72</v>
       </c>
       <c r="D59">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E59">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F59">
         <v>1050</v>
@@ -2960,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2974,7 +2935,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -2983,13 +2944,13 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E60">
         <v>-300</v>
       </c>
       <c r="F60">
-        <v>1050</v>
+        <v>450</v>
       </c>
       <c r="G60">
         <v>6</v>
@@ -2998,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3012,7 +2973,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3021,13 +2982,13 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E61">
         <v>-300</v>
       </c>
       <c r="F61">
-        <v>-750</v>
+        <v>-150</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -3036,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3059,10 +3020,10 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E62">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F62">
         <v>-750</v>
@@ -3074,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3088,7 +3049,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3097,13 +3058,13 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E63">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F63">
-        <v>450</v>
+        <v>-750</v>
       </c>
       <c r="G63">
         <v>6</v>
@@ -3112,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3126,7 +3087,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3135,22 +3096,22 @@
         <v>77</v>
       </c>
       <c r="D64">
-        <v>1410</v>
+        <v>720</v>
       </c>
       <c r="E64">
-        <v>150</v>
+        <v>1050</v>
       </c>
       <c r="F64">
         <v>-25</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3164,7 +3125,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3176,19 +3137,19 @@
         <v>720</v>
       </c>
       <c r="E65">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F65">
         <v>-25</v>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3202,7 +3163,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3211,7 +3172,7 @@
         <v>79</v>
       </c>
       <c r="D66">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="E66">
         <v>150</v>
@@ -3220,13 +3181,13 @@
         <v>-25</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3240,7 +3201,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3252,19 +3213,19 @@
         <v>120</v>
       </c>
       <c r="E67">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F67">
         <v>-25</v>
       </c>
       <c r="G67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3278,7 +3239,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -3290,19 +3251,19 @@
         <v>120</v>
       </c>
       <c r="E68">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="F68">
         <v>-25</v>
       </c>
       <c r="G68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3334,13 +3295,13 @@
         <v>-25</v>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3372,13 +3333,13 @@
         <v>-25</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3410,13 +3371,13 @@
         <v>-25</v>
       </c>
       <c r="G71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3448,13 +3409,13 @@
         <v>-25</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3468,7 +3429,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -3480,19 +3441,19 @@
         <v>1410</v>
       </c>
       <c r="E73">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F73">
         <v>-25</v>
       </c>
       <c r="G73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3506,7 +3467,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -3515,22 +3476,22 @@
         <v>87</v>
       </c>
       <c r="D74">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="E74">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="F74">
         <v>-25</v>
       </c>
       <c r="G74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -3544,7 +3505,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -3553,22 +3514,22 @@
         <v>88</v>
       </c>
       <c r="D75">
-        <v>720</v>
+        <v>1410</v>
       </c>
       <c r="E75">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="F75">
         <v>-25</v>
       </c>
       <c r="G75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3577,44 +3538,6 @@
         <v>2900</v>
       </c>
       <c r="M75">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1">
-        <v>161</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76">
-        <v>840</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>-70</v>
-      </c>
-      <c r="G76" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76">
-        <v>6</v>
-      </c>
-      <c r="I76" t="s">
-        <v>93</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>2900</v>
-      </c>
-      <c r="M76">
         <v>1932</v>
       </c>
     </row>
@@ -3625,7 +3548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3677,22 +3600,22 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="E2">
-        <v>-210</v>
+        <v>160</v>
       </c>
       <c r="F2">
-        <v>-50</v>
+        <v>-181</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3701,7 +3624,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3715,22 +3638,22 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
       <c r="D3">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E3">
-        <v>-160</v>
+        <v>210</v>
       </c>
       <c r="F3">
-        <v>-181</v>
+        <v>-50</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3739,7 +3662,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3753,37 +3676,37 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4">
-        <v>960</v>
+        <v>392</v>
       </c>
       <c r="E4">
-        <v>170</v>
+        <v>-575</v>
       </c>
       <c r="F4">
-        <v>-375</v>
+        <v>-1024</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>592</v>
+        <v>1940</v>
       </c>
       <c r="M4">
         <v>2655</v>
@@ -3791,22 +3714,22 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5">
-        <v>600</v>
+        <v>492</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="F5">
-        <v>125</v>
+        <v>-175</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3815,7 +3738,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3829,22 +3752,22 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>637</v>
+        <v>540</v>
       </c>
       <c r="E6">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="F6">
-        <v>-365</v>
+        <v>-175</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3853,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -3867,496 +3790,116 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>2235</v>
+        <v>305</v>
       </c>
       <c r="E7">
-        <v>1650</v>
+        <v>450</v>
       </c>
       <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7" t="s">
-        <v>90</v>
+        <v>-453</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2900</v>
+        <v>1940</v>
       </c>
       <c r="M7">
-        <v>1932</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>2385</v>
+        <v>600</v>
       </c>
       <c r="E8">
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>175</v>
-      </c>
-      <c r="G8" t="s">
-        <v>90</v>
+        <v>125</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>2900</v>
+        <v>1940</v>
       </c>
       <c r="M8">
-        <v>1932</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>1010</v>
+        <v>380</v>
       </c>
       <c r="E9">
-        <v>1535</v>
+        <v>-800</v>
       </c>
       <c r="F9">
-        <v>-77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>90</v>
+        <v>-725</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2900</v>
+        <v>1940</v>
       </c>
       <c r="M9">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10">
-        <v>2660</v>
-      </c>
-      <c r="E10">
-        <v>435</v>
-      </c>
-      <c r="F10">
-        <v>210</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>2900</v>
-      </c>
-      <c r="M10">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>144</v>
-      </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11">
-        <v>1060</v>
-      </c>
-      <c r="E11">
-        <v>1580</v>
-      </c>
-      <c r="F11">
-        <v>275</v>
-      </c>
-      <c r="G11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2900</v>
-      </c>
-      <c r="M11">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>145</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12">
-        <v>2310</v>
-      </c>
-      <c r="E12">
-        <v>1740</v>
-      </c>
-      <c r="F12">
-        <v>825</v>
-      </c>
-      <c r="G12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>2900</v>
-      </c>
-      <c r="M12">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>148</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13">
-        <v>1320</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1175</v>
-      </c>
-      <c r="G13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>2900</v>
-      </c>
-      <c r="M13">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>153</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14">
-        <v>1410</v>
-      </c>
-      <c r="E14">
-        <v>1692</v>
-      </c>
-      <c r="F14">
-        <v>825</v>
-      </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>2900</v>
-      </c>
-      <c r="M14">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15">
-        <v>1010</v>
-      </c>
-      <c r="E15">
-        <v>1535</v>
-      </c>
-      <c r="F15">
-        <v>-25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>2900</v>
-      </c>
-      <c r="M15">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16">
-        <v>1285</v>
-      </c>
-      <c r="E16">
-        <v>1592</v>
-      </c>
-      <c r="F16">
-        <v>-24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>2900</v>
-      </c>
-      <c r="M16">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1">
-        <v>159</v>
-      </c>
-      <c r="B17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17">
-        <v>645</v>
-      </c>
-      <c r="E17">
-        <v>1075</v>
-      </c>
-      <c r="F17">
-        <v>-50</v>
-      </c>
-      <c r="G17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2900</v>
-      </c>
-      <c r="M17">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18">
-        <v>645</v>
-      </c>
-      <c r="E18">
-        <v>1112</v>
-      </c>
-      <c r="F18">
-        <v>-77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>2900</v>
-      </c>
-      <c r="M18">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19">
-        <v>2310</v>
-      </c>
-      <c r="E19">
-        <v>1505</v>
-      </c>
-      <c r="F19">
-        <v>547</v>
-      </c>
-      <c r="G19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>2900</v>
-      </c>
-      <c r="M19">
-        <v>1932</v>
+        <v>2655</v>
       </c>
     </row>
   </sheetData>
@@ -4366,13 +3909,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4414,44 +3957,6 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2">
-        <v>960</v>
-      </c>
-      <c r="E2">
-        <v>1585</v>
-      </c>
-      <c r="F2">
-        <v>-45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>2900</v>
-      </c>
-      <c r="M2">
-        <v>1932</v>
       </c>
     </row>
   </sheetData>
